--- a/丘CHILL.xlsx
+++ b/丘CHILL.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="丘CHILL Whiskey·Cocktail餐吧（环宇城店）" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="丘CHILL Whiskey·Cocktail餐吧（环宇城店）" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -832,6 +832,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1096,7 +1164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA38"/>
+  <dimension ref="A1:BA46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
@@ -8631,9 +8699,6 @@
           <t>0.00</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
           <t>1</t>
@@ -8732,6 +8797,1353 @@
       <c r="AR38" t="inlineStr">
         <is>
           <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>274.00</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>274.00</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>149.00</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>242.00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>4,481</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>599.00</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>242.00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>4,481</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>599.00</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[218.0]</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...2人餐[128.0]</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...单人餐[59.0]</t>
+        </is>
+      </c>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>珠海_丘CHILL Whiskey...代金券[88.0]</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>352.0</t>
         </is>
       </c>
     </row>
